--- a/benefix-template.xlsx
+++ b/benefix-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengrabowski/Documents/Coding/Projects/benefix-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31225C3-CF80-984D-88A1-DFBE174FAFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1992E8-97FF-5346-A1AC-66E6A3287604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43660" yWindow="500" windowWidth="24960" windowHeight="13860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="41660" yWindow="1160" windowWidth="24960" windowHeight="13860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Upload Template" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,57 @@
     <t>sixty_five_plus</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
     <t xml:space="preserve">4/01/2017</t>
   </si>
   <si>
@@ -258,6 +309,138 @@
   </si>
   <si>
     <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold QPOS 100/50 600D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold QPOS 2000 80/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold QPOS 1000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold QPOS 2000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Platinum PPO 100/50 200D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 1000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 2000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver PPO 3000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver PPO 5000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 100/50 600D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver PPO 4000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze PPO 7000 100/50 Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 1000 80/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 2000 80/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver PPO 3000 80/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze PPO 6550 100/50 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold PPO 2000 100/50 HSA T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver PPO 3000 100/50 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Indemnity 2000 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze HMO 5550 80 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Wellspan HNOption 3000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold WellSpan HNOption 1000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold Pinnacle HNOption 1000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold LVHN HNOption 1000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Pinnacle HNOption 3000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver LVHN HNOption 3000 100/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold WellSpan HNOption 2000 100/50 HSA T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold Pinnacle HNOption 2000 100/50 HSA T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold LVHN HNOption 2000 100/50 HSA T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze WellSpan HNOption 5550 80/50 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze Pinnacle HNOption 5550 80/50 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze LVHN HNOption 5550 80/50 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Savings Plus HNOnly 2000 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Gold Savings Plus HNOnly 500 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Commonwealth HNOnly 3000 100 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Penn Highlands HNOnly 3000 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze Commonwealth HNOnly 6550 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze Penn Highlands HNOnly 6550 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Bronze Savings Plus HNOnly 5550 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Savings Plus HNOnly 3000 100 HSA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Commonwealth HNOnly 3000 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Commonwealth HNOnly 4000 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Penn Highlands HNOnly 3000 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Silver Penn Highlands HNOnly 4000 100</t>
   </si>
 </sst>
 </file>
@@ -633,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,19 +991,19 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1">
         <v>240.82</v>
@@ -963,159 +1146,7394 @@
       <c r="AZ2" s="1">
         <v>1137.34</v>
       </c>
+      <c r="BA2" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
+      <c r="A3" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>235.14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>235.14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>370.29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>370.29</v>
+      </c>
+      <c r="J3" s="1">
+        <v>370.29</v>
+      </c>
+      <c r="K3" s="1">
+        <v>370.29</v>
+      </c>
+      <c r="L3" s="1">
+        <v>371.78</v>
+      </c>
+      <c r="M3" s="1">
+        <v>379.18</v>
+      </c>
+      <c r="N3" s="1">
+        <v>388.07</v>
+      </c>
+      <c r="O3" s="1">
+        <v>402.51</v>
+      </c>
+      <c r="P3" s="1">
+        <v>414.36</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>420.28</v>
+      </c>
+      <c r="R3" s="1">
+        <v>429.17</v>
+      </c>
+      <c r="S3" s="1">
+        <v>438.06</v>
+      </c>
+      <c r="T3" s="1">
+        <v>443.61</v>
+      </c>
+      <c r="U3" s="1">
+        <v>449.54</v>
+      </c>
+      <c r="V3" s="1">
+        <v>452.5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>455.46</v>
+      </c>
+      <c r="X3" s="1">
+        <v>458.42</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>461.39</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>467.31</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>473.24</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>482.12</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>490.64</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>502.49</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>517.3</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>534.7</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>555.44</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>578.77</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>605.43</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>631.72</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>661.34</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>690.6</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>722.81</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>755.4</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>790.58</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>825.76</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>863.9</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>902.41</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>943.51</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>963.87</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1004.98</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1040.53</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1063.85</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1093.11</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1110.51</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>1110.51</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D4" s="2"/>
+      <c r="A4" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F4" s="1">
+        <v>220.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>220.8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>347.72</v>
+      </c>
+      <c r="I4" s="1">
+        <v>347.72</v>
+      </c>
+      <c r="J4" s="1">
+        <v>347.72</v>
+      </c>
+      <c r="K4" s="1">
+        <v>347.72</v>
+      </c>
+      <c r="L4" s="1">
+        <v>349.11</v>
+      </c>
+      <c r="M4" s="1">
+        <v>356.06</v>
+      </c>
+      <c r="N4" s="1">
+        <v>364.41</v>
+      </c>
+      <c r="O4" s="1">
+        <v>377.97</v>
+      </c>
+      <c r="P4" s="1">
+        <v>389.09</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>394.66</v>
+      </c>
+      <c r="R4" s="1">
+        <v>403</v>
+      </c>
+      <c r="S4" s="1">
+        <v>411.35</v>
+      </c>
+      <c r="T4" s="1">
+        <v>416.56</v>
+      </c>
+      <c r="U4" s="1">
+        <v>422.13</v>
+      </c>
+      <c r="V4" s="1">
+        <v>424.91</v>
+      </c>
+      <c r="W4" s="1">
+        <v>427.69</v>
+      </c>
+      <c r="X4" s="1">
+        <v>430.47</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>433.25</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>438.82</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>444.38</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>452.73</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>460.72</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>471.85</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>485.76</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>502.1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>521.57</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>543.48</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>568.52</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>593.2</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>621.02</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>648.49</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>678.74</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>709.34</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>742.37</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>775.41</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>811.22</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>847.38</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>885.98</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>905.1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>943.7</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>977.08</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>998.99</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>1026.46</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1042.8</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1042.8</v>
+      </c>
+      <c r="BA4" t="s" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
+      <c r="A5" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>246.37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>246.37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>387.98</v>
+      </c>
+      <c r="I5" s="1">
+        <v>387.98</v>
+      </c>
+      <c r="J5" s="1">
+        <v>387.98</v>
+      </c>
+      <c r="K5" s="1">
+        <v>387.98</v>
+      </c>
+      <c r="L5" s="1">
+        <v>389.54</v>
+      </c>
+      <c r="M5" s="1">
+        <v>397.3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>406.61</v>
+      </c>
+      <c r="O5" s="1">
+        <v>421.74</v>
+      </c>
+      <c r="P5" s="1">
+        <v>434.15</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>440.36</v>
+      </c>
+      <c r="R5" s="1">
+        <v>449.67</v>
+      </c>
+      <c r="S5" s="1">
+        <v>458.98</v>
+      </c>
+      <c r="T5" s="1">
+        <v>464.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>471.01</v>
+      </c>
+      <c r="V5" s="1">
+        <v>474.12</v>
+      </c>
+      <c r="W5" s="1">
+        <v>477.22</v>
+      </c>
+      <c r="X5" s="1">
+        <v>480.32</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>483.43</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>489.64</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>495.84</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>505.16</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>514.08</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>526.49</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>542.01</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>560.25</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>581.98</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>606.42</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>634.35</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>661.9</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>692.94</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>723.59</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>757.34</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>791.49</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>828.35</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>865.2</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>905.17</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>945.52</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>988.58</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1009.92</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1052.99</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1090.23</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1114.68</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>1145.33</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1163.56</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>1163.56</v>
+      </c>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D6" s="2"/>
+      <c r="A6" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>364.41</v>
+      </c>
+      <c r="I6" s="1">
+        <v>364.41</v>
+      </c>
+      <c r="J6" s="1">
+        <v>364.41</v>
+      </c>
+      <c r="K6" s="1">
+        <v>364.41</v>
+      </c>
+      <c r="L6" s="1">
+        <v>365.87</v>
+      </c>
+      <c r="M6" s="1">
+        <v>373.15</v>
+      </c>
+      <c r="N6" s="1">
+        <v>381.9</v>
+      </c>
+      <c r="O6" s="1">
+        <v>396.11</v>
+      </c>
+      <c r="P6" s="1">
+        <v>407.77</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>413.6</v>
+      </c>
+      <c r="R6" s="1">
+        <v>422.35</v>
+      </c>
+      <c r="S6" s="1">
+        <v>431.09</v>
+      </c>
+      <c r="T6" s="1">
+        <v>436.56</v>
+      </c>
+      <c r="U6" s="1">
+        <v>442.39</v>
+      </c>
+      <c r="V6" s="1">
+        <v>445.31</v>
+      </c>
+      <c r="W6" s="1">
+        <v>448.22</v>
+      </c>
+      <c r="X6" s="1">
+        <v>451.14</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>454.05</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>459.88</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>465.71</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>474.46</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>482.84</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>494.5</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>509.08</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>526.21</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>546.61</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>569.57</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>595.81</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>621.68</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>650.83</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>679.62</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>711.32</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>743.39</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>778.01</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>812.63</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>850.16</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>888.06</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>928.51</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>948.55</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>989</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1023.99</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1046.94</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>1075.73</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>1092.86</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>1092.86</v>
+      </c>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D7" s="2"/>
+      <c r="A7" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1">
+        <v>263.46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>263.46</v>
+      </c>
+      <c r="H7" s="1">
+        <v>414.89</v>
+      </c>
+      <c r="I7" s="1">
+        <v>414.89</v>
+      </c>
+      <c r="J7" s="1">
+        <v>414.89</v>
+      </c>
+      <c r="K7" s="1">
+        <v>414.89</v>
+      </c>
+      <c r="L7" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="M7" s="1">
+        <v>424.85</v>
+      </c>
+      <c r="N7" s="1">
+        <v>434.81</v>
+      </c>
+      <c r="O7" s="1">
+        <v>450.99</v>
+      </c>
+      <c r="P7" s="1">
+        <v>464.27</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>470.91</v>
+      </c>
+      <c r="R7" s="1">
+        <v>480.86</v>
+      </c>
+      <c r="S7" s="1">
+        <v>490.82</v>
+      </c>
+      <c r="T7" s="1">
+        <v>497.04</v>
+      </c>
+      <c r="U7" s="1">
+        <v>503.68</v>
+      </c>
+      <c r="V7" s="1">
+        <v>507</v>
+      </c>
+      <c r="W7" s="1">
+        <v>510.32</v>
+      </c>
+      <c r="X7" s="1">
+        <v>513.64</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>516.96</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>523.6</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>530.24</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>540.19</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>549.74</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>563.01</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>579.61</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>599.11</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>622.34</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>648.48</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>678.35</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>707.81</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>741</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>773.78</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>809.87</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>846.39</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>885.8</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>925.22</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>967.95</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1011.1</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1057.15</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1079.97</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1126.02</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1165.85</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1191.99</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1224.77</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>1244.27</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>1244.27</v>
+      </c>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D8" s="2"/>
+      <c r="A8" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1">
+        <v>242.29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>242.29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>381.56</v>
+      </c>
+      <c r="I8" s="1">
+        <v>381.56</v>
+      </c>
+      <c r="J8" s="1">
+        <v>381.56</v>
+      </c>
+      <c r="K8" s="1">
+        <v>381.56</v>
+      </c>
+      <c r="L8" s="1">
+        <v>383.09</v>
+      </c>
+      <c r="M8" s="1">
+        <v>390.72</v>
+      </c>
+      <c r="N8" s="1">
+        <v>399.88</v>
+      </c>
+      <c r="O8" s="1">
+        <v>414.76</v>
+      </c>
+      <c r="P8" s="1">
+        <v>426.97</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>433.08</v>
+      </c>
+      <c r="R8" s="1">
+        <v>442.23</v>
+      </c>
+      <c r="S8" s="1">
+        <v>451.39</v>
+      </c>
+      <c r="T8" s="1">
+        <v>457.11</v>
+      </c>
+      <c r="U8" s="1">
+        <v>463.22</v>
+      </c>
+      <c r="V8" s="1">
+        <v>466.27</v>
+      </c>
+      <c r="W8" s="1">
+        <v>469.32</v>
+      </c>
+      <c r="X8" s="1">
+        <v>472.38</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>475.43</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>481.53</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>487.64</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>496.8</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>505.57</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>517.78</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>533.05</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>550.98</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>572.35</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>596.39</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>623.86</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>650.95</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>681.47</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>711.62</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>744.81</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>778.39</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>814.64</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>850.89</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>890.19</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>929.87</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>972.23</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>993.21</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1035.57</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1072.2</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>1096.24</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>1126.38</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>1144.31</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>1144.31</v>
+      </c>
+      <c r="BA8" s="1"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
+      <c r="A9" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1">
+        <v>227.58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>227.58</v>
+      </c>
+      <c r="H9" s="1">
+        <v>358.39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>358.39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>358.39</v>
+      </c>
+      <c r="K9" s="1">
+        <v>358.39</v>
+      </c>
+      <c r="L9" s="1">
+        <v>359.82</v>
+      </c>
+      <c r="M9" s="1">
+        <v>366.99</v>
+      </c>
+      <c r="N9" s="1">
+        <v>375.59</v>
+      </c>
+      <c r="O9" s="1">
+        <v>389.57</v>
+      </c>
+      <c r="P9" s="1">
+        <v>401.03</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>406.77</v>
+      </c>
+      <c r="R9" s="1">
+        <v>415.37</v>
+      </c>
+      <c r="S9" s="1">
+        <v>423.97</v>
+      </c>
+      <c r="T9" s="1">
+        <v>429.35</v>
+      </c>
+      <c r="U9" s="1">
+        <v>435.08</v>
+      </c>
+      <c r="V9" s="1">
+        <v>437.95</v>
+      </c>
+      <c r="W9" s="1">
+        <v>440.81</v>
+      </c>
+      <c r="X9" s="1">
+        <v>443.68</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>446.55</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>452.28</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>458.02</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>466.62</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>474.86</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>486.33</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>500.67</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>517.51</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>537.58</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>560.16</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>585.96</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>611.41</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>640.08</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>668.39</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>699.57</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>731.11</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>765.15</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>799.2</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>836.11</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>873.39</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>913.17</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>932.88</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>972.66</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>1007.06</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>1029.64</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>1057.96</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>1074.8</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>1074.8</v>
+      </c>
+      <c r="BA9" s="1"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
+      <c r="A10" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1">
+        <v>205.51</v>
+      </c>
+      <c r="G10" s="1">
+        <v>205.51</v>
+      </c>
+      <c r="H10" s="1">
+        <v>323.64</v>
+      </c>
+      <c r="I10" s="1">
+        <v>323.64</v>
+      </c>
+      <c r="J10" s="1">
+        <v>323.64</v>
+      </c>
+      <c r="K10" s="1">
+        <v>323.64</v>
+      </c>
+      <c r="L10" s="1">
+        <v>324.93</v>
+      </c>
+      <c r="M10" s="1">
+        <v>331.4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>339.17</v>
+      </c>
+      <c r="O10" s="1">
+        <v>351.79</v>
+      </c>
+      <c r="P10" s="1">
+        <v>362.15</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>367.33</v>
+      </c>
+      <c r="R10" s="1">
+        <v>375.09</v>
+      </c>
+      <c r="S10" s="1">
+        <v>382.86</v>
+      </c>
+      <c r="T10" s="1">
+        <v>387.72</v>
+      </c>
+      <c r="U10" s="1">
+        <v>392.89</v>
+      </c>
+      <c r="V10" s="1">
+        <v>395.48</v>
+      </c>
+      <c r="W10" s="1">
+        <v>398.07</v>
+      </c>
+      <c r="X10" s="1">
+        <v>400.66</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>403.25</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>408.43</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>413.61</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>421.37</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>428.82</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>439.17</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>452.12</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>467.33</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>485.45</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>505.84</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>529.14</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>552.12</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>578.01</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>603.58</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>631.74</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>660.22</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>690.96</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>721.71</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>755.04</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>788.7</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>824.62</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>842.42</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>878.35</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>909.42</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>929.8</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>955.37</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>970.58</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>970.58</v>
+      </c>
+      <c r="BA10" s="1"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
+      <c r="A11" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1">
+        <v>191.21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>191.21</v>
+      </c>
+      <c r="H11" s="1">
+        <v>301.11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>301.11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>301.11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>301.11</v>
+      </c>
+      <c r="L11" s="1">
+        <v>302.32</v>
+      </c>
+      <c r="M11" s="1">
+        <v>308.34</v>
+      </c>
+      <c r="N11" s="1">
+        <v>315.57</v>
+      </c>
+      <c r="O11" s="1">
+        <v>327.31</v>
+      </c>
+      <c r="P11" s="1">
+        <v>336.95</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>341.77</v>
+      </c>
+      <c r="R11" s="1">
+        <v>348.99</v>
+      </c>
+      <c r="S11" s="1">
+        <v>356.22</v>
+      </c>
+      <c r="T11" s="1">
+        <v>360.74</v>
+      </c>
+      <c r="U11" s="1">
+        <v>365.55</v>
+      </c>
+      <c r="V11" s="1">
+        <v>367.96</v>
+      </c>
+      <c r="W11" s="1">
+        <v>370.37</v>
+      </c>
+      <c r="X11" s="1">
+        <v>372.78</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>375.19</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>380.01</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>384.82</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>392.05</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>398.98</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>408.61</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>420.66</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>434.81</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>451.67</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>470.64</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>492.32</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>513.7</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>537.79</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>561.58</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>587.78</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>614.27</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>642.88</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>671.49</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>702.5</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>733.82</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>767.24</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>783.8</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>817.23</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>846.13</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>865.1</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>888.89</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>903.04</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>903.04</v>
+      </c>
+      <c r="BA11" s="1"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D12" s="2"/>
+      <c r="A12" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1">
+        <v>231.23</v>
+      </c>
+      <c r="G12" s="1">
+        <v>231.23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>364.14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>364.14</v>
+      </c>
+      <c r="J12" s="1">
+        <v>364.14</v>
+      </c>
+      <c r="K12" s="1">
+        <v>364.14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>365.59</v>
+      </c>
+      <c r="M12" s="1">
+        <v>372.88</v>
+      </c>
+      <c r="N12" s="1">
+        <v>381.62</v>
+      </c>
+      <c r="O12" s="1">
+        <v>395.82</v>
+      </c>
+      <c r="P12" s="1">
+        <v>407.47</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>413.3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>422.04</v>
+      </c>
+      <c r="S12" s="1">
+        <v>430.77</v>
+      </c>
+      <c r="T12" s="1">
+        <v>436.24</v>
+      </c>
+      <c r="U12" s="1">
+        <v>442.06</v>
+      </c>
+      <c r="V12" s="1">
+        <v>444.98</v>
+      </c>
+      <c r="W12" s="1">
+        <v>447.89</v>
+      </c>
+      <c r="X12" s="1">
+        <v>450.8</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>453.72</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>459.54</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>465.37</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>474.11</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>482.48</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>494.13</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>508.7</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>525.81</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>546.21</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>569.15</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>595.36</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>621.22</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>650.35</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>679.12</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>710.8</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>742.84</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>777.43</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>812.03</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>849.53</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>887.4</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>927.82</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>947.85</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>988.27</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1023.23</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>1046.17</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>1074.93</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1092.05</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>1092.05</v>
+      </c>
+      <c r="BA12" s="1"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D13" s="2"/>
+      <c r="A13" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1">
+        <v>195.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>195.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>307.87</v>
+      </c>
+      <c r="I13" s="1">
+        <v>307.87</v>
+      </c>
+      <c r="J13" s="1">
+        <v>307.87</v>
+      </c>
+      <c r="K13" s="1">
+        <v>307.87</v>
+      </c>
+      <c r="L13" s="1">
+        <v>309.1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>315.26</v>
+      </c>
+      <c r="N13" s="1">
+        <v>322.65</v>
+      </c>
+      <c r="O13" s="1">
+        <v>334.66</v>
+      </c>
+      <c r="P13" s="1">
+        <v>344.51</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>349.43</v>
+      </c>
+      <c r="R13" s="1">
+        <v>356.82</v>
+      </c>
+      <c r="S13" s="1">
+        <v>364.21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>368.83</v>
+      </c>
+      <c r="U13" s="1">
+        <v>373.76</v>
+      </c>
+      <c r="V13" s="1">
+        <v>376.22</v>
+      </c>
+      <c r="W13" s="1">
+        <v>378.68</v>
+      </c>
+      <c r="X13" s="1">
+        <v>381.14</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>383.61</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>388.53</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>393.46</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>400.85</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>407.93</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>417.78</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>430.1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>444.57</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>461.81</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>481.2</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>503.37</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>525.23</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>549.86</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>574.18</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>600.96</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>628.06</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>657.3</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>686.55</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>718.26</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>750.28</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>784.46</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>801.39</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>835.56</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>865.12</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>884.51</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>908.84</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>923.31</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>923.31</v>
+      </c>
+      <c r="BA13" s="1"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D14" s="2"/>
+      <c r="A14" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1">
+        <v>160.63</v>
+      </c>
+      <c r="G14" s="1">
+        <v>160.63</v>
+      </c>
+      <c r="H14" s="1">
+        <v>252.96</v>
+      </c>
+      <c r="I14" s="1">
+        <v>252.96</v>
+      </c>
+      <c r="J14" s="1">
+        <v>252.96</v>
+      </c>
+      <c r="K14" s="1">
+        <v>252.96</v>
+      </c>
+      <c r="L14" s="1">
+        <v>253.97</v>
+      </c>
+      <c r="M14" s="1">
+        <v>259.03</v>
+      </c>
+      <c r="N14" s="1">
+        <v>265.1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>274.96</v>
+      </c>
+      <c r="P14" s="1">
+        <v>283.06</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>287.1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>293.18</v>
+      </c>
+      <c r="S14" s="1">
+        <v>299.25</v>
+      </c>
+      <c r="T14" s="1">
+        <v>303.04</v>
+      </c>
+      <c r="U14" s="1">
+        <v>307.09</v>
+      </c>
+      <c r="V14" s="1">
+        <v>309.11</v>
+      </c>
+      <c r="W14" s="1">
+        <v>311.14</v>
+      </c>
+      <c r="X14" s="1">
+        <v>313.16</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>315.18</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>319.23</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>323.28</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>329.35</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>335.17</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>343.26</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>353.38</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>365.27</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>379.43</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>395.37</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>413.58</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>431.54</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>451.78</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>471.76</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>493.77</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>516.03</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>540.06</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>564.09</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>590.15</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>616.45</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>644.53</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>658.44</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>686.52</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>710.81</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>726.74</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>746.73</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>758.61</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>758.61</v>
+      </c>
+      <c r="BA14" s="1"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D15" s="2"/>
+      <c r="A15" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1">
+        <v>213.03</v>
+      </c>
+      <c r="G15" s="1">
+        <v>213.03</v>
+      </c>
+      <c r="H15" s="1">
+        <v>335.48</v>
+      </c>
+      <c r="I15" s="1">
+        <v>335.48</v>
+      </c>
+      <c r="J15" s="1">
+        <v>335.48</v>
+      </c>
+      <c r="K15" s="1">
+        <v>335.48</v>
+      </c>
+      <c r="L15" s="1">
+        <v>336.83</v>
+      </c>
+      <c r="M15" s="1">
+        <v>343.54</v>
+      </c>
+      <c r="N15" s="1">
+        <v>351.59</v>
+      </c>
+      <c r="O15" s="1">
+        <v>364.67</v>
+      </c>
+      <c r="P15" s="1">
+        <v>375.41</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>380.77</v>
+      </c>
+      <c r="R15" s="1">
+        <v>388.83</v>
+      </c>
+      <c r="S15" s="1">
+        <v>396.88</v>
+      </c>
+      <c r="T15" s="1">
+        <v>401.91</v>
+      </c>
+      <c r="U15" s="1">
+        <v>407.28</v>
+      </c>
+      <c r="V15" s="1">
+        <v>409.96</v>
+      </c>
+      <c r="W15" s="1">
+        <v>412.65</v>
+      </c>
+      <c r="X15" s="1">
+        <v>415.33</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>418.01</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>423.38</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>428.75</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>436.8</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>455.25</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>468.67</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>484.44</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>503.23</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>524.36</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>548.52</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>572.34</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>599.18</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>625.68</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>654.87</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>684.39</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>716.26</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>748.13</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>782.69</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>817.58</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>854.81</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>873.27</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>910.5</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>942.71</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>963.85</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>990.35</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>1006.12</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>1006.12</v>
+      </c>
+      <c r="BA15" s="1"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="D16" s="2"/>
+      <c r="A16" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1">
+        <v>217.12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>217.12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>341.93</v>
+      </c>
+      <c r="I16" s="1">
+        <v>341.93</v>
+      </c>
+      <c r="J16" s="1">
+        <v>341.93</v>
+      </c>
+      <c r="K16" s="1">
+        <v>341.93</v>
+      </c>
+      <c r="L16" s="1">
+        <v>343.3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>350.14</v>
+      </c>
+      <c r="N16" s="1">
+        <v>358.34</v>
+      </c>
+      <c r="O16" s="1">
+        <v>371.68</v>
+      </c>
+      <c r="P16" s="1">
+        <v>382.62</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>388.09</v>
+      </c>
+      <c r="R16" s="1">
+        <v>396.3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>404.5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>409.63</v>
+      </c>
+      <c r="U16" s="1">
+        <v>415.1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>417.84</v>
+      </c>
+      <c r="W16" s="1">
+        <v>420.57</v>
+      </c>
+      <c r="X16" s="1">
+        <v>423.31</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>426.04</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>431.51</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>436.98</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>445.19</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>453.06</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>464</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>477.67</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>493.75</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>512.89</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>534.43</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>559.05</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>583.33</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>610.68</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>637.7</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>667.44</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>697.53</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>730.02</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>762.5</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>797.72</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>833.28</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>871.23</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>890.04</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>927.99</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>960.82</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>982.36</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>1009.37</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>1025.44</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>1025.44</v>
+      </c>
+      <c r="BA16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="2"/>
+      <c r="A17" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>188.7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>188.7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>297.17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>297.17</v>
+      </c>
+      <c r="J17" s="1">
+        <v>297.17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>297.17</v>
+      </c>
+      <c r="L17" s="1">
+        <v>298.35</v>
+      </c>
+      <c r="M17" s="1">
+        <v>304.3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>311.43</v>
+      </c>
+      <c r="O17" s="1">
+        <v>323.02</v>
+      </c>
+      <c r="P17" s="1">
+        <v>332.53</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>337.28</v>
+      </c>
+      <c r="R17" s="1">
+        <v>344.41</v>
+      </c>
+      <c r="S17" s="1">
+        <v>351.55</v>
+      </c>
+      <c r="T17" s="1">
+        <v>356</v>
+      </c>
+      <c r="U17" s="1">
+        <v>360.76</v>
+      </c>
+      <c r="V17" s="1">
+        <v>363.14</v>
+      </c>
+      <c r="W17" s="1">
+        <v>365.51</v>
+      </c>
+      <c r="X17" s="1">
+        <v>367.89</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>370.27</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>375.02</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>379.78</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>386.91</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>393.74</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>403.25</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>415.14</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>429.11</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>445.75</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>464.47</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>485.87</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>506.96</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>530.74</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>554.21</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>580.07</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>606.22</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>634.45</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>662.68</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>693.29</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>724.19</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>757.18</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>773.52</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>806.51</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>835.03</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>853.76</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>877.23</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>891.2</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>891.2</v>
+      </c>
+      <c r="BA17" s="1"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="2"/>
+      <c r="A18" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1">
+        <v>164.98</v>
+      </c>
+      <c r="G18" s="1">
+        <v>164.98</v>
+      </c>
+      <c r="H18" s="1">
+        <v>259.82</v>
+      </c>
+      <c r="I18" s="1">
+        <v>259.82</v>
+      </c>
+      <c r="J18" s="1">
+        <v>259.82</v>
+      </c>
+      <c r="K18" s="1">
+        <v>259.82</v>
+      </c>
+      <c r="L18" s="1">
+        <v>260.86</v>
+      </c>
+      <c r="M18" s="1">
+        <v>266.05</v>
+      </c>
+      <c r="N18" s="1">
+        <v>272.29</v>
+      </c>
+      <c r="O18" s="1">
+        <v>282.42</v>
+      </c>
+      <c r="P18" s="1">
+        <v>290.73</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>294.89</v>
+      </c>
+      <c r="R18" s="1">
+        <v>301.13</v>
+      </c>
+      <c r="S18" s="1">
+        <v>307.36</v>
+      </c>
+      <c r="T18" s="1">
+        <v>311.26</v>
+      </c>
+      <c r="U18" s="1">
+        <v>315.42</v>
+      </c>
+      <c r="V18" s="1">
+        <v>317.5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>319.57</v>
+      </c>
+      <c r="X18" s="1">
+        <v>321.65</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>323.73</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>327.89</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>332.04</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>338.28</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>344.26</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>352.57</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>362.96</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>375.17</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>389.72</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>406.09</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>424.8</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>443.25</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>464.03</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>484.56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>507.16</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>530.02</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>554.71</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>579.39</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>606.15</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>633.17</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>662.01</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>676.3</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>705.14</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>730.08</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>746.45</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>766.98</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>779.19</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>779.19</v>
+      </c>
+      <c r="BA18" s="1"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
+      <c r="A19" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1">
+        <v>236.82</v>
+      </c>
+      <c r="G19" s="1">
+        <v>236.82</v>
+      </c>
+      <c r="H19" s="1">
+        <v>372.94</v>
+      </c>
+      <c r="I19" s="1">
+        <v>372.94</v>
+      </c>
+      <c r="J19" s="1">
+        <v>372.94</v>
+      </c>
+      <c r="K19" s="1">
+        <v>372.94</v>
+      </c>
+      <c r="L19" s="1">
+        <v>374.43</v>
+      </c>
+      <c r="M19" s="1">
+        <v>381.89</v>
+      </c>
+      <c r="N19" s="1">
+        <v>390.84</v>
+      </c>
+      <c r="O19" s="1">
+        <v>405.38</v>
+      </c>
+      <c r="P19" s="1">
+        <v>417.32</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>423.28</v>
+      </c>
+      <c r="R19" s="1">
+        <v>432.23</v>
+      </c>
+      <c r="S19" s="1">
+        <v>441.19</v>
+      </c>
+      <c r="T19" s="1">
+        <v>446.78</v>
+      </c>
+      <c r="U19" s="1">
+        <v>452.75</v>
+      </c>
+      <c r="V19" s="1">
+        <v>455.73</v>
+      </c>
+      <c r="W19" s="1">
+        <v>458.71</v>
+      </c>
+      <c r="X19" s="1">
+        <v>461.7</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>464.68</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>470.65</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>476.61</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>485.56</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>494.14</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>506.08</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>520.99</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>538.52</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>559.41</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>582.9</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>609.75</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>636.23</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>666.07</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>695.53</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>727.97</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>760.79</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>796.22</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>831.65</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>870.06</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>908.85</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>950.25</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>970.76</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>1012.15</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>1047.95</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>1071.45</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>1100.91</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>1118.44</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>1118.44</v>
+      </c>
+      <c r="BA19" s="1"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="2"/>
+      <c r="A20" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1">
+        <v>195.12</v>
+      </c>
+      <c r="G20" s="1">
+        <v>195.12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>307.28</v>
+      </c>
+      <c r="I20" s="1">
+        <v>307.28</v>
+      </c>
+      <c r="J20" s="1">
+        <v>307.28</v>
+      </c>
+      <c r="K20" s="1">
+        <v>307.28</v>
+      </c>
+      <c r="L20" s="1">
+        <v>308.51</v>
+      </c>
+      <c r="M20" s="1">
+        <v>314.66</v>
+      </c>
+      <c r="N20" s="1">
+        <v>322.03</v>
+      </c>
+      <c r="O20" s="1">
+        <v>334.02</v>
+      </c>
+      <c r="P20" s="1">
+        <v>343.85</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>348.77</v>
+      </c>
+      <c r="R20" s="1">
+        <v>356.14</v>
+      </c>
+      <c r="S20" s="1">
+        <v>363.51</v>
+      </c>
+      <c r="T20" s="1">
+        <v>368.12</v>
+      </c>
+      <c r="U20" s="1">
+        <v>373.04</v>
+      </c>
+      <c r="V20" s="1">
+        <v>375.5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>377.96</v>
+      </c>
+      <c r="X20" s="1">
+        <v>380.42</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>382.87</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>387.79</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>392.71</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>400.08</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>407.15</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>416.98</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>429.27</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>443.72</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>460.92</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>480.28</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>502.41</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>524.22</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>548.81</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>573.08</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>599.81</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>626.86</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>656.05</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>685.24</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>716.89</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>748.85</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>782.95</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>799.86</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>833.96</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>863.46</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>882.82</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>907.1</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>921.54</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>921.54</v>
+      </c>
+      <c r="BA20" s="1"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
+      <c r="A21" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1">
+        <v>243.97</v>
+      </c>
+      <c r="G21" s="1">
+        <v>243.97</v>
+      </c>
+      <c r="H21" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>384.2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>385.73</v>
+      </c>
+      <c r="M21" s="1">
+        <v>393.42</v>
+      </c>
+      <c r="N21" s="1">
+        <v>402.64</v>
+      </c>
+      <c r="O21" s="1">
+        <v>417.62</v>
+      </c>
+      <c r="P21" s="1">
+        <v>429.92</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>436.06</v>
+      </c>
+      <c r="R21" s="1">
+        <v>445.29</v>
+      </c>
+      <c r="S21" s="1">
+        <v>454.51</v>
+      </c>
+      <c r="T21" s="1">
+        <v>460.27</v>
+      </c>
+      <c r="U21" s="1">
+        <v>466.42</v>
+      </c>
+      <c r="V21" s="1">
+        <v>469.49</v>
+      </c>
+      <c r="W21" s="1">
+        <v>472.56</v>
+      </c>
+      <c r="X21" s="1">
+        <v>475.64</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>478.71</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>484.86</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>491</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>500.23</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>509.06</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>521.36</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>536.72</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>554.78</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>576.3</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>600.5</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>628.16</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>655.44</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>686.18</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>716.53</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>749.95</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>783.76</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>820.26</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>856.76</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>896.33</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>936.29</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>978.94</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1000.07</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>1042.71</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>1079.6</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>1103.8</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>1134.15</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>1152.21</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>1152.21</v>
+      </c>
+      <c r="BA21" s="1"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
+      <c r="A22" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1">
+        <v>149.96</v>
+      </c>
+      <c r="G22" s="1">
+        <v>149.96</v>
+      </c>
+      <c r="H22" s="1">
+        <v>236.16</v>
+      </c>
+      <c r="I22" s="1">
+        <v>236.16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>236.16</v>
+      </c>
+      <c r="K22" s="1">
+        <v>236.16</v>
+      </c>
+      <c r="L22" s="1">
+        <v>237.1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>241.82</v>
+      </c>
+      <c r="N22" s="1">
+        <v>247.49</v>
+      </c>
+      <c r="O22" s="1">
+        <v>256.7</v>
+      </c>
+      <c r="P22" s="1">
+        <v>264.26</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>268.04</v>
+      </c>
+      <c r="R22" s="1">
+        <v>273.7</v>
+      </c>
+      <c r="S22" s="1">
+        <v>279.37</v>
+      </c>
+      <c r="T22" s="1">
+        <v>282.91</v>
+      </c>
+      <c r="U22" s="1">
+        <v>286.69</v>
+      </c>
+      <c r="V22" s="1">
+        <v>288.58</v>
+      </c>
+      <c r="W22" s="1">
+        <v>290.47</v>
+      </c>
+      <c r="X22" s="1">
+        <v>292.36</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>294.25</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>298.03</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>301.81</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>307.47</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>312.91</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>320.46</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>329.91</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>341.01</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>354.23</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>369.11</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>386.11</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>402.88</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>421.77</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>440.43</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>460.98</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>481.76</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>504.19</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>526.63</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>550.95</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>575.51</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>601.72</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>614.71</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>640.93</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>663.6</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>678.47</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>697.13</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>708.23</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>708.23</v>
+      </c>
+      <c r="BA22" s="1"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="2"/>
+      <c r="A23" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F23" s="1">
+        <v>175.61</v>
+      </c>
+      <c r="G23" s="1">
+        <v>175.61</v>
+      </c>
+      <c r="H23" s="1">
+        <v>276.56</v>
+      </c>
+      <c r="I23" s="1">
+        <v>276.56</v>
+      </c>
+      <c r="J23" s="1">
+        <v>276.56</v>
+      </c>
+      <c r="K23" s="1">
+        <v>276.56</v>
+      </c>
+      <c r="L23" s="1">
+        <v>277.66</v>
+      </c>
+      <c r="M23" s="1">
+        <v>283.19</v>
+      </c>
+      <c r="N23" s="1">
+        <v>289.83</v>
+      </c>
+      <c r="O23" s="1">
+        <v>300.62</v>
+      </c>
+      <c r="P23" s="1">
+        <v>309.47</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>313.89</v>
+      </c>
+      <c r="R23" s="1">
+        <v>320.53</v>
+      </c>
+      <c r="S23" s="1">
+        <v>327.17</v>
+      </c>
+      <c r="T23" s="1">
+        <v>331.31</v>
+      </c>
+      <c r="U23" s="1">
+        <v>335.74</v>
+      </c>
+      <c r="V23" s="1">
+        <v>337.95</v>
+      </c>
+      <c r="W23" s="1">
+        <v>340.16</v>
+      </c>
+      <c r="X23" s="1">
+        <v>342.38</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>344.59</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>349.01</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>353.44</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>360.08</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>366.44</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>375.29</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>386.35</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>399.35</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>414.83</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>432.26</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>452.17</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>471.81</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>493.93</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>515.78</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>539.84</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>564.18</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>590.45</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>616.72</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>645.21</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>673.97</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>704.67</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>719.88</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>750.57</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>777.12</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>794.55</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>816.4</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>829.39</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>829.39</v>
+      </c>
+      <c r="BA23" s="1"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="2"/>
+      <c r="A24" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1">
+        <v>207.03</v>
+      </c>
+      <c r="G24" s="1">
+        <v>207.03</v>
+      </c>
+      <c r="H24" s="1">
+        <v>326.04</v>
+      </c>
+      <c r="I24" s="1">
+        <v>326.04</v>
+      </c>
+      <c r="J24" s="1">
+        <v>326.04</v>
+      </c>
+      <c r="K24" s="1">
+        <v>326.04</v>
+      </c>
+      <c r="L24" s="1">
+        <v>327.34</v>
+      </c>
+      <c r="M24" s="1">
+        <v>333.86</v>
+      </c>
+      <c r="N24" s="1">
+        <v>341.69</v>
+      </c>
+      <c r="O24" s="1">
+        <v>354.4</v>
+      </c>
+      <c r="P24" s="1">
+        <v>364.83</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>370.05</v>
+      </c>
+      <c r="R24" s="1">
+        <v>377.88</v>
+      </c>
+      <c r="S24" s="1">
+        <v>385.7</v>
+      </c>
+      <c r="T24" s="1">
+        <v>390.59</v>
+      </c>
+      <c r="U24" s="1">
+        <v>395.81</v>
+      </c>
+      <c r="V24" s="1">
+        <v>398.42</v>
+      </c>
+      <c r="W24" s="1">
+        <v>401.02</v>
+      </c>
+      <c r="X24" s="1">
+        <v>403.63</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>406.24</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>411.46</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>416.67</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>424.5</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>432</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>442.43</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>455.47</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>470.8</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>489.05</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>509.59</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>533.07</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>556.22</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>582.3</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>608.06</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>636.42</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>665.11</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>696.09</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>727.06</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>760.64</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>794.55</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>830.74</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>848.67</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>884.86</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>916.16</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>936.7</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>962.46</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>977.78</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>977.78</v>
+      </c>
+      <c r="BA24" s="1"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="2"/>
+      <c r="A25" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1">
+        <v>214.85</v>
+      </c>
+      <c r="G25" s="1">
+        <v>214.85</v>
+      </c>
+      <c r="H25" s="1">
+        <v>338.34</v>
+      </c>
+      <c r="I25" s="1">
+        <v>338.34</v>
+      </c>
+      <c r="J25" s="1">
+        <v>338.34</v>
+      </c>
+      <c r="K25" s="1">
+        <v>338.34</v>
+      </c>
+      <c r="L25" s="1">
+        <v>339.69</v>
+      </c>
+      <c r="M25" s="1">
+        <v>346.46</v>
+      </c>
+      <c r="N25" s="1">
+        <v>354.58</v>
+      </c>
+      <c r="O25" s="1">
+        <v>367.77</v>
+      </c>
+      <c r="P25" s="1">
+        <v>378.6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>384.01</v>
+      </c>
+      <c r="R25" s="1">
+        <v>392.13</v>
+      </c>
+      <c r="S25" s="1">
+        <v>400.25</v>
+      </c>
+      <c r="T25" s="1">
+        <v>405.33</v>
+      </c>
+      <c r="U25" s="1">
+        <v>410.74</v>
+      </c>
+      <c r="V25" s="1">
+        <v>413.45</v>
+      </c>
+      <c r="W25" s="1">
+        <v>416.16</v>
+      </c>
+      <c r="X25" s="1">
+        <v>418.86</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>421.57</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>426.98</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>432.4</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>440.52</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>448.3</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>459.13</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>472.66</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>488.56</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>507.51</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>528.82</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>553.18</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>577.21</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>604.27</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>631</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>660.44</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>690.21</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>722.35</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>754.5</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>789.34</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>824.53</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>862.09</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>880.7</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>918.25</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>950.73</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>972.05</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>998.78</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>1014.68</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>1014.68</v>
+      </c>
+      <c r="BA25" s="1"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="2"/>
+      <c r="A26" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1">
+        <v>209.38</v>
+      </c>
+      <c r="G26" s="1">
+        <v>209.38</v>
+      </c>
+      <c r="H26" s="1">
+        <v>329.73</v>
+      </c>
+      <c r="I26" s="1">
+        <v>329.73</v>
+      </c>
+      <c r="J26" s="1">
+        <v>329.73</v>
+      </c>
+      <c r="K26" s="1">
+        <v>329.73</v>
+      </c>
+      <c r="L26" s="1">
+        <v>331.05</v>
+      </c>
+      <c r="M26" s="1">
+        <v>337.64</v>
+      </c>
+      <c r="N26" s="1">
+        <v>345.55</v>
+      </c>
+      <c r="O26" s="1">
+        <v>358.41</v>
+      </c>
+      <c r="P26" s="1">
+        <v>368.96</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>374.24</v>
+      </c>
+      <c r="R26" s="1">
+        <v>382.15</v>
+      </c>
+      <c r="S26" s="1">
+        <v>390.07</v>
+      </c>
+      <c r="T26" s="1">
+        <v>395.01</v>
+      </c>
+      <c r="U26" s="1">
+        <v>400.29</v>
+      </c>
+      <c r="V26" s="1">
+        <v>402.93</v>
+      </c>
+      <c r="W26" s="1">
+        <v>405.56</v>
+      </c>
+      <c r="X26" s="1">
+        <v>408.2</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>410.84</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>416.11</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>421.39</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>429.3</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>436.89</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>447.44</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>460.63</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>476.13</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>494.59</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>515.36</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>539.1</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>562.51</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>588.89</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>614.94</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>643.63</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>672.64</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>703.97</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>735.29</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>769.25</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>803.54</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>840.14</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>858.28</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>894.88</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>926.53</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>947.3</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>973.35</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>988.85</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>988.85</v>
+      </c>
+      <c r="BA26" s="1"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="2"/>
+      <c r="A27" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1">
+        <v>181.88</v>
+      </c>
+      <c r="G27" s="1">
+        <v>181.88</v>
+      </c>
+      <c r="H27" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="I27" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="J27" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="K27" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="L27" s="1">
+        <v>287.58</v>
+      </c>
+      <c r="M27" s="1">
+        <v>293.31</v>
+      </c>
+      <c r="N27" s="1">
+        <v>300.18</v>
+      </c>
+      <c r="O27" s="1">
+        <v>311.35</v>
+      </c>
+      <c r="P27" s="1">
+        <v>320.52</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>325.1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>331.98</v>
+      </c>
+      <c r="S27" s="1">
+        <v>338.85</v>
+      </c>
+      <c r="T27" s="1">
+        <v>343.15</v>
+      </c>
+      <c r="U27" s="1">
+        <v>347.73</v>
+      </c>
+      <c r="V27" s="1">
+        <v>350.02</v>
+      </c>
+      <c r="W27" s="1">
+        <v>352.31</v>
+      </c>
+      <c r="X27" s="1">
+        <v>354.6</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>356.89</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>361.48</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>366.06</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>372.94</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>379.52</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>388.69</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>400.15</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>413.61</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>429.65</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>447.69</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>468.32</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>488.65</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>511.57</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>534.2</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>559.12</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>584.32</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>611.53</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>638.74</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>668.25</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>698.04</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>729.83</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>745.58</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>777.38</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>804.88</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>822.92</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>845.55</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>859.01</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>859.01</v>
+      </c>
+      <c r="BA27" s="1"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="2"/>
+      <c r="A28" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>177.6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>177.6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>279.68</v>
+      </c>
+      <c r="I28" s="1">
+        <v>279.68</v>
+      </c>
+      <c r="J28" s="1">
+        <v>279.68</v>
+      </c>
+      <c r="K28" s="1">
+        <v>279.68</v>
+      </c>
+      <c r="L28" s="1">
+        <v>280.8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>286.39</v>
+      </c>
+      <c r="N28" s="1">
+        <v>293.11</v>
+      </c>
+      <c r="O28" s="1">
+        <v>304.01</v>
+      </c>
+      <c r="P28" s="1">
+        <v>312.96</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>317.44</v>
+      </c>
+      <c r="R28" s="1">
+        <v>324.15</v>
+      </c>
+      <c r="S28" s="1">
+        <v>330.86</v>
+      </c>
+      <c r="T28" s="1">
+        <v>335.06</v>
+      </c>
+      <c r="U28" s="1">
+        <v>339.53</v>
+      </c>
+      <c r="V28" s="1">
+        <v>341.77</v>
+      </c>
+      <c r="W28" s="1">
+        <v>344.01</v>
+      </c>
+      <c r="X28" s="1">
+        <v>346.25</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>348.48</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>352.96</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>357.43</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>364.15</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>370.58</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>379.53</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>390.72</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>403.86</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>419.52</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>437.14</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>457.28</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>477.14</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>499.51</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>521.61</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>545.94</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>570.55</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>597.12</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>623.69</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>652.5</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>681.59</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>712.63</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>728.01</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>759.06</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>785.91</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>803.53</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>825.62</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>838.77</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>838.77</v>
+      </c>
+      <c r="BA28" s="1"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
+      <c r="A29" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1">
+        <v>202.37</v>
+      </c>
+      <c r="G29" s="1">
+        <v>202.37</v>
+      </c>
+      <c r="H29" s="1">
+        <v>318.69</v>
+      </c>
+      <c r="I29" s="1">
+        <v>318.69</v>
+      </c>
+      <c r="J29" s="1">
+        <v>318.69</v>
+      </c>
+      <c r="K29" s="1">
+        <v>318.69</v>
+      </c>
+      <c r="L29" s="1">
+        <v>319.96</v>
+      </c>
+      <c r="M29" s="1">
+        <v>326.34</v>
+      </c>
+      <c r="N29" s="1">
+        <v>333.98</v>
+      </c>
+      <c r="O29" s="1">
+        <v>346.41</v>
+      </c>
+      <c r="P29" s="1">
+        <v>356.61</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>361.71</v>
+      </c>
+      <c r="R29" s="1">
+        <v>369.36</v>
+      </c>
+      <c r="S29" s="1">
+        <v>377.01</v>
+      </c>
+      <c r="T29" s="1">
+        <v>381.79</v>
+      </c>
+      <c r="U29" s="1">
+        <v>386.89</v>
+      </c>
+      <c r="V29" s="1">
+        <v>389.44</v>
+      </c>
+      <c r="W29" s="1">
+        <v>391.98</v>
+      </c>
+      <c r="X29" s="1">
+        <v>394.53</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>397.08</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>402.18</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>407.28</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>414.93</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>422.26</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>432.46</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>445.21</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>460.18</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>478.03</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>498.11</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>521.05</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>543.68</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>569.17</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>594.35</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>622.08</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>650.12</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>680.4</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>710.67</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>743.5</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>776.64</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>812.01</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>829.54</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>864.92</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>895.51</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>915.59</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>940.76</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>955.74</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>955.74</v>
+      </c>
+      <c r="BA29" s="1"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="2"/>
+      <c r="A30" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1">
+        <v>209.61</v>
+      </c>
+      <c r="G30" s="1">
+        <v>209.61</v>
+      </c>
+      <c r="H30" s="1">
+        <v>330.09</v>
+      </c>
+      <c r="I30" s="1">
+        <v>330.09</v>
+      </c>
+      <c r="J30" s="1">
+        <v>330.09</v>
+      </c>
+      <c r="K30" s="1">
+        <v>330.09</v>
+      </c>
+      <c r="L30" s="1">
+        <v>331.41</v>
+      </c>
+      <c r="M30" s="1">
+        <v>338.01</v>
+      </c>
+      <c r="N30" s="1">
+        <v>345.94</v>
+      </c>
+      <c r="O30" s="1">
+        <v>358.81</v>
+      </c>
+      <c r="P30" s="1">
+        <v>369.37</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>374.65</v>
+      </c>
+      <c r="R30" s="1">
+        <v>382.58</v>
+      </c>
+      <c r="S30" s="1">
+        <v>390.5</v>
+      </c>
+      <c r="T30" s="1">
+        <v>395.45</v>
+      </c>
+      <c r="U30" s="1">
+        <v>400.73</v>
+      </c>
+      <c r="V30" s="1">
+        <v>403.37</v>
+      </c>
+      <c r="W30" s="1">
+        <v>406.01</v>
+      </c>
+      <c r="X30" s="1">
+        <v>408.65</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>411.29</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>416.58</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>421.86</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>429.78</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>437.37</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>447.94</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>461.14</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>476.65</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>495.14</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>515.93</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>539.7</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>563.14</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>589.54</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>615.62</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>644.34</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>673.39</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>704.75</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>736.11</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>770.11</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>804.43</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>841.08</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>859.23</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>895.87</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>927.56</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>948.36</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>974.43</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>989.95</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>989.95</v>
+      </c>
+      <c r="BA30" s="1"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="2"/>
+      <c r="A31" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1">
+        <v>204.65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>204.65</v>
+      </c>
+      <c r="H31" s="1">
+        <v>322.28</v>
+      </c>
+      <c r="I31" s="1">
+        <v>322.28</v>
+      </c>
+      <c r="J31" s="1">
+        <v>322.28</v>
+      </c>
+      <c r="K31" s="1">
+        <v>322.28</v>
+      </c>
+      <c r="L31" s="1">
+        <v>323.57</v>
+      </c>
+      <c r="M31" s="1">
+        <v>330.01</v>
+      </c>
+      <c r="N31" s="1">
+        <v>337.75</v>
+      </c>
+      <c r="O31" s="1">
+        <v>350.32</v>
+      </c>
+      <c r="P31" s="1">
+        <v>360.63</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>365.79</v>
+      </c>
+      <c r="R31" s="1">
+        <v>373.52</v>
+      </c>
+      <c r="S31" s="1">
+        <v>381.25</v>
+      </c>
+      <c r="T31" s="1">
+        <v>386.09</v>
+      </c>
+      <c r="U31" s="1">
+        <v>391.25</v>
+      </c>
+      <c r="V31" s="1">
+        <v>393.82</v>
+      </c>
+      <c r="W31" s="1">
+        <v>396.4</v>
+      </c>
+      <c r="X31" s="1">
+        <v>398.98</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>401.56</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>406.71</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>411.87</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>419.61</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>427.02</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>437.33</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>450.22</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>465.37</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>483.42</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>503.72</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>526.92</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>549.81</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>575.59</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>601.05</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>629.09</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>657.45</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>688.06</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>718.68</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>751.87</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>785.39</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>821.16</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>838.89</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>874.66</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>905.6</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>925.9</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>951.36</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>966.51</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>966.51</v>
+      </c>
+      <c r="BA31" s="1"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
+      <c r="A32" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F32" s="1">
+        <v>124.39</v>
+      </c>
+      <c r="G32" s="1">
+        <v>124.39</v>
+      </c>
+      <c r="H32" s="1">
+        <v>195.89</v>
+      </c>
+      <c r="I32" s="1">
+        <v>195.89</v>
+      </c>
+      <c r="J32" s="1">
+        <v>195.89</v>
+      </c>
+      <c r="K32" s="1">
+        <v>195.89</v>
+      </c>
+      <c r="L32" s="1">
+        <v>196.67</v>
+      </c>
+      <c r="M32" s="1">
+        <v>200.59</v>
+      </c>
+      <c r="N32" s="1">
+        <v>205.29</v>
+      </c>
+      <c r="O32" s="1">
+        <v>212.93</v>
+      </c>
+      <c r="P32" s="1">
+        <v>219.2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>222.33</v>
+      </c>
+      <c r="R32" s="1">
+        <v>227.03</v>
+      </c>
+      <c r="S32" s="1">
+        <v>231.73</v>
+      </c>
+      <c r="T32" s="1">
+        <v>234.67</v>
+      </c>
+      <c r="U32" s="1">
+        <v>237.81</v>
+      </c>
+      <c r="V32" s="1">
+        <v>239.37</v>
+      </c>
+      <c r="W32" s="1">
+        <v>240.94</v>
+      </c>
+      <c r="X32" s="1">
+        <v>242.51</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>244.08</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>247.21</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>250.34</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>255.05</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>259.55</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>265.82</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>273.65</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>282.86</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>293.83</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>306.17</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>320.28</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>334.18</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>349.85</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>365.33</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>382.37</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>399.61</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>418.22</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>436.83</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>457.01</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>477.38</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>499.12</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>509.89</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>531.64</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>550.44</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>562.78</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>578.26</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>587.47</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>587.47</v>
+      </c>
+      <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="2"/>
+      <c r="A33" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1">
+        <v>128.82</v>
+      </c>
+      <c r="G33" s="1">
+        <v>128.82</v>
+      </c>
+      <c r="H33" s="1">
+        <v>202.87</v>
+      </c>
+      <c r="I33" s="1">
+        <v>202.87</v>
+      </c>
+      <c r="J33" s="1">
+        <v>202.87</v>
+      </c>
+      <c r="K33" s="1">
+        <v>202.87</v>
+      </c>
+      <c r="L33" s="1">
+        <v>203.68</v>
+      </c>
+      <c r="M33" s="1">
+        <v>207.74</v>
+      </c>
+      <c r="N33" s="1">
+        <v>212.61</v>
+      </c>
+      <c r="O33" s="1">
+        <v>220.52</v>
+      </c>
+      <c r="P33" s="1">
+        <v>227.01</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>230.26</v>
+      </c>
+      <c r="R33" s="1">
+        <v>235.13</v>
+      </c>
+      <c r="S33" s="1">
+        <v>240</v>
+      </c>
+      <c r="T33" s="1">
+        <v>243.04</v>
+      </c>
+      <c r="U33" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="V33" s="1">
+        <v>247.91</v>
+      </c>
+      <c r="W33" s="1">
+        <v>249.53</v>
+      </c>
+      <c r="X33" s="1">
+        <v>251.15</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>252.78</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>256.02</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>259.27</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>264.14</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>268.8</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>275.29</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>283.41</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>292.94</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>304.31</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>317.09</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>331.69</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>346.1</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>362.33</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>378.35</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>396</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>413.86</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>433.13</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>452.4</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>473.3</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>494.39</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>516.91</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>528.07</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>550.59</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>570.07</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>582.85</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>598.87</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>608.41</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>608.41</v>
+      </c>
+      <c r="BA33" s="1"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
+      <c r="A34" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1">
+        <v>125.78</v>
+      </c>
+      <c r="G34" s="1">
+        <v>125.78</v>
+      </c>
+      <c r="H34" s="1">
+        <v>198.08</v>
+      </c>
+      <c r="I34" s="1">
+        <v>198.08</v>
+      </c>
+      <c r="J34" s="1">
+        <v>198.08</v>
+      </c>
+      <c r="K34" s="1">
+        <v>198.08</v>
+      </c>
+      <c r="L34" s="1">
+        <v>198.87</v>
+      </c>
+      <c r="M34" s="1">
+        <v>202.84</v>
+      </c>
+      <c r="N34" s="1">
+        <v>207.59</v>
+      </c>
+      <c r="O34" s="1">
+        <v>215.32</v>
+      </c>
+      <c r="P34" s="1">
+        <v>221.65</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>224.82</v>
+      </c>
+      <c r="R34" s="1">
+        <v>229.58</v>
+      </c>
+      <c r="S34" s="1">
+        <v>234.33</v>
+      </c>
+      <c r="T34" s="1">
+        <v>237.3</v>
+      </c>
+      <c r="U34" s="1">
+        <v>240.47</v>
+      </c>
+      <c r="V34" s="1">
+        <v>242.06</v>
+      </c>
+      <c r="W34" s="1">
+        <v>243.64</v>
+      </c>
+      <c r="X34" s="1">
+        <v>245.23</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>246.81</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>249.98</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>253.15</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>257.9</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>262.46</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>268.8</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>276.72</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>286.03</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>297.12</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>309.6</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>323.86</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>337.93</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>353.77</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>369.42</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>386.66</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>404.09</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>422.9</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>441.72</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>462.13</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>482.73</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>504.71</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>515.61</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>537.59</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>556.61</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>569.09</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>584.74</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>594.05</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>594.05</v>
+      </c>
+      <c r="BA34" s="1"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
+      <c r="A35" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1">
+        <v>168.16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>168.16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>264.82</v>
+      </c>
+      <c r="I35" s="1">
+        <v>264.82</v>
+      </c>
+      <c r="J35" s="1">
+        <v>264.82</v>
+      </c>
+      <c r="K35" s="1">
+        <v>264.82</v>
+      </c>
+      <c r="L35" s="1">
+        <v>265.88</v>
+      </c>
+      <c r="M35" s="1">
+        <v>271.17</v>
+      </c>
+      <c r="N35" s="1">
+        <v>277.53</v>
+      </c>
+      <c r="O35" s="1">
+        <v>287.86</v>
+      </c>
+      <c r="P35" s="1">
+        <v>296.33</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>300.57</v>
+      </c>
+      <c r="R35" s="1">
+        <v>306.92</v>
+      </c>
+      <c r="S35" s="1">
+        <v>313.28</v>
+      </c>
+      <c r="T35" s="1">
+        <v>317.25</v>
+      </c>
+      <c r="U35" s="1">
+        <v>321.49</v>
+      </c>
+      <c r="V35" s="1">
+        <v>323.61</v>
+      </c>
+      <c r="W35" s="1">
+        <v>325.73</v>
+      </c>
+      <c r="X35" s="1">
+        <v>327.85</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>329.96</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>334.2</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>338.44</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>344.79</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>350.88</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>359.36</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>369.95</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>382.4</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>397.23</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>413.91</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>432.98</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>451.78</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>472.97</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>493.89</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>516.93</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>540.23</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>565.39</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>590.55</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>617.82</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>645.36</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>674.76</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>689.32</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>718.72</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>744.14</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>760.82</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>781.74</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>794.19</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>794.19</v>
+      </c>
+      <c r="BA35" s="1"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="2"/>
+      <c r="A36" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1">
+        <v>193.56</v>
+      </c>
+      <c r="G36" s="1">
+        <v>193.56</v>
+      </c>
+      <c r="H36" s="1">
+        <v>304.82</v>
+      </c>
+      <c r="I36" s="1">
+        <v>304.82</v>
+      </c>
+      <c r="J36" s="1">
+        <v>304.82</v>
+      </c>
+      <c r="K36" s="1">
+        <v>304.82</v>
+      </c>
+      <c r="L36" s="1">
+        <v>306.04</v>
+      </c>
+      <c r="M36" s="1">
+        <v>312.14</v>
+      </c>
+      <c r="N36" s="1">
+        <v>319.45</v>
+      </c>
+      <c r="O36" s="1">
+        <v>331.34</v>
+      </c>
+      <c r="P36" s="1">
+        <v>341.09</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>345.97</v>
+      </c>
+      <c r="R36" s="1">
+        <v>353.29</v>
+      </c>
+      <c r="S36" s="1">
+        <v>360.6</v>
+      </c>
+      <c r="T36" s="1">
+        <v>365.18</v>
+      </c>
+      <c r="U36" s="1">
+        <v>370.05</v>
+      </c>
+      <c r="V36" s="1">
+        <v>372.49</v>
+      </c>
+      <c r="W36" s="1">
+        <v>374.93</v>
+      </c>
+      <c r="X36" s="1">
+        <v>377.37</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>379.81</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>384.68</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>389.56</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>396.88</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>403.89</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>413.64</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>425.83</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>440.16</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>457.23</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>476.43</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>498.38</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>520.02</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>544.41</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>568.49</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>595.01</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>621.83</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>650.79</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>679.75</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>711.15</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>742.85</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>776.68</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>793.45</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>827.28</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>856.55</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>875.75</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>899.83</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>914.16</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>914.16</v>
+      </c>
+      <c r="BA36" s="1"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
+      <c r="A37" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1">
+        <v>173.12</v>
+      </c>
+      <c r="G37" s="1">
+        <v>173.12</v>
+      </c>
+      <c r="H37" s="1">
+        <v>272.63</v>
+      </c>
+      <c r="I37" s="1">
+        <v>272.63</v>
+      </c>
+      <c r="J37" s="1">
+        <v>272.63</v>
+      </c>
+      <c r="K37" s="1">
+        <v>272.63</v>
+      </c>
+      <c r="L37" s="1">
+        <v>273.72</v>
+      </c>
+      <c r="M37" s="1">
+        <v>279.18</v>
+      </c>
+      <c r="N37" s="1">
+        <v>285.72</v>
+      </c>
+      <c r="O37" s="1">
+        <v>296.35</v>
+      </c>
+      <c r="P37" s="1">
+        <v>305.08</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>309.44</v>
+      </c>
+      <c r="R37" s="1">
+        <v>315.98</v>
+      </c>
+      <c r="S37" s="1">
+        <v>322.52</v>
+      </c>
+      <c r="T37" s="1">
+        <v>326.61</v>
+      </c>
+      <c r="U37" s="1">
+        <v>330.98</v>
+      </c>
+      <c r="V37" s="1">
+        <v>333.16</v>
+      </c>
+      <c r="W37" s="1">
+        <v>335.34</v>
+      </c>
+      <c r="X37" s="1">
+        <v>337.52</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>339.7</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>344.06</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>348.42</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>354.97</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>361.24</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>369.96</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>380.87</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>393.68</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>408.95</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>426.13</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>445.75</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>465.11</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>486.92</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>508.46</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>532.18</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>556.17</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>582.07</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>607.97</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>636.05</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>664.41</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>694.67</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>709.66</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>739.93</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>766.1</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>783.27</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>804.81</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>817.63</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>817.63</v>
+      </c>
+      <c r="BA37" s="1"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
+      <c r="A38" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1">
+        <v>188.66</v>
+      </c>
+      <c r="G38" s="1">
+        <v>188.66</v>
+      </c>
+      <c r="H38" s="1">
+        <v>297.11</v>
+      </c>
+      <c r="I38" s="1">
+        <v>297.11</v>
+      </c>
+      <c r="J38" s="1">
+        <v>297.11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>297.11</v>
+      </c>
+      <c r="L38" s="1">
+        <v>298.29</v>
+      </c>
+      <c r="M38" s="1">
+        <v>304.24</v>
+      </c>
+      <c r="N38" s="1">
+        <v>311.37</v>
+      </c>
+      <c r="O38" s="1">
+        <v>322.95</v>
+      </c>
+      <c r="P38" s="1">
+        <v>332.46</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>337.22</v>
+      </c>
+      <c r="R38" s="1">
+        <v>344.35</v>
+      </c>
+      <c r="S38" s="1">
+        <v>351.48</v>
+      </c>
+      <c r="T38" s="1">
+        <v>355.93</v>
+      </c>
+      <c r="U38" s="1">
+        <v>360.69</v>
+      </c>
+      <c r="V38" s="1">
+        <v>363.06</v>
+      </c>
+      <c r="W38" s="1">
+        <v>365.44</v>
+      </c>
+      <c r="X38" s="1">
+        <v>367.82</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>370.19</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>374.95</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>379.7</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>386.83</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>393.67</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>403.17</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>415.06</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>429.02</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>445.66</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>464.38</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>485.77</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>506.86</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>530.63</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>554.1</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>579.95</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>606.1</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>634.32</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>662.55</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>693.15</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>724.05</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>757.03</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>773.37</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>806.35</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>834.87</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>853.59</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>877.06</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>891.02</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>891.02</v>
+      </c>
+      <c r="BA38" s="1"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
+      <c r="A39" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1">
+        <v>148.4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>148.4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>233.69</v>
+      </c>
+      <c r="I39" s="1">
+        <v>233.69</v>
+      </c>
+      <c r="J39" s="1">
+        <v>233.69</v>
+      </c>
+      <c r="K39" s="1">
+        <v>233.69</v>
+      </c>
+      <c r="L39" s="1">
+        <v>234.63</v>
+      </c>
+      <c r="M39" s="1">
+        <v>239.3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>244.91</v>
+      </c>
+      <c r="O39" s="1">
+        <v>254.03</v>
+      </c>
+      <c r="P39" s="1">
+        <v>261.5</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>265.24</v>
+      </c>
+      <c r="R39" s="1">
+        <v>270.85</v>
+      </c>
+      <c r="S39" s="1">
+        <v>276.46</v>
+      </c>
+      <c r="T39" s="1">
+        <v>279.97</v>
+      </c>
+      <c r="U39" s="1">
+        <v>283.71</v>
+      </c>
+      <c r="V39" s="1">
+        <v>285.58</v>
+      </c>
+      <c r="W39" s="1">
+        <v>287.44</v>
+      </c>
+      <c r="X39" s="1">
+        <v>289.31</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>291.18</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>294.92</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>298.66</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>304.27</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>309.65</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>317.12</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>326.47</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>337.46</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>350.54</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>365.26</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>382.09</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>398.68</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>417.38</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>435.84</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>456.17</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>476.74</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>498.94</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>521.14</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>545.21</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>569.51</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>595.45</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>608.31</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>634.25</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>656.68</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>671.41</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>689.87</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>700.85</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>700.85</v>
+      </c>
+      <c r="BA39" s="1"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="2"/>
+      <c r="A40" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1">
+        <v>161.72</v>
+      </c>
+      <c r="G40" s="1">
+        <v>161.72</v>
+      </c>
+      <c r="H40" s="1">
+        <v>254.68</v>
+      </c>
+      <c r="I40" s="1">
+        <v>254.68</v>
+      </c>
+      <c r="J40" s="1">
+        <v>254.68</v>
+      </c>
+      <c r="K40" s="1">
+        <v>254.68</v>
+      </c>
+      <c r="L40" s="1">
+        <v>255.7</v>
+      </c>
+      <c r="M40" s="1">
+        <v>260.79</v>
+      </c>
+      <c r="N40" s="1">
+        <v>266.9</v>
+      </c>
+      <c r="O40" s="1">
+        <v>276.83</v>
+      </c>
+      <c r="P40" s="1">
+        <v>284.98</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>289.06</v>
+      </c>
+      <c r="R40" s="1">
+        <v>295.17</v>
+      </c>
+      <c r="S40" s="1">
+        <v>301.28</v>
+      </c>
+      <c r="T40" s="1">
+        <v>305.1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>309.18</v>
+      </c>
+      <c r="V40" s="1">
+        <v>311.22</v>
+      </c>
+      <c r="W40" s="1">
+        <v>313.25</v>
+      </c>
+      <c r="X40" s="1">
+        <v>315.29</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>317.33</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>321.4</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>325.48</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>331.59</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>337.45</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>345.6</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>355.78</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>367.75</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>382.02</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>398.06</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>416.4</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>434.48</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>454.85</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>474.97</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>497.13</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>519.54</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>543.73</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>567.93</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>594.16</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>620.65</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>648.92</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>662.92</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>691.19</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>715.64</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>731.69</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>751.81</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>763.78</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>763.78</v>
+      </c>
+      <c r="BA40" s="1"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="2"/>
+      <c r="A41" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1">
+        <v>130.83</v>
+      </c>
+      <c r="G41" s="1">
+        <v>130.83</v>
+      </c>
+      <c r="H41" s="1">
+        <v>206.03</v>
+      </c>
+      <c r="I41" s="1">
+        <v>206.03</v>
+      </c>
+      <c r="J41" s="1">
+        <v>206.03</v>
+      </c>
+      <c r="K41" s="1">
+        <v>206.03</v>
+      </c>
+      <c r="L41" s="1">
+        <v>206.85</v>
+      </c>
+      <c r="M41" s="1">
+        <v>210.97</v>
+      </c>
+      <c r="N41" s="1">
+        <v>215.92</v>
+      </c>
+      <c r="O41" s="1">
+        <v>223.95</v>
+      </c>
+      <c r="P41" s="1">
+        <v>230.55</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>233.84</v>
+      </c>
+      <c r="R41" s="1">
+        <v>238.79</v>
+      </c>
+      <c r="S41" s="1">
+        <v>243.73</v>
+      </c>
+      <c r="T41" s="1">
+        <v>246.82</v>
+      </c>
+      <c r="U41" s="1">
+        <v>250.12</v>
+      </c>
+      <c r="V41" s="1">
+        <v>251.77</v>
+      </c>
+      <c r="W41" s="1">
+        <v>253.42</v>
+      </c>
+      <c r="X41" s="1">
+        <v>255.06</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>256.71</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>260.01</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>263.31</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>268.25</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>272.99</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>279.58</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>287.82</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>297.51</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>309.04</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>322.02</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>336.86</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>351.49</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>367.97</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>384.24</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>402.17</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>420.3</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>439.87</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>459.45</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>480.67</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>502.09</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>524.96</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>536.29</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>559.16</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>578.94</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>591.92</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>608.2</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>617.88</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>617.88</v>
+      </c>
+      <c r="BA41" s="1"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
+      <c r="A42" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1">
+        <v>182.29</v>
+      </c>
+      <c r="G42" s="1">
+        <v>182.29</v>
+      </c>
+      <c r="H42" s="1">
+        <v>287.06</v>
+      </c>
+      <c r="I42" s="1">
+        <v>287.06</v>
+      </c>
+      <c r="J42" s="1">
+        <v>287.06</v>
+      </c>
+      <c r="K42" s="1">
+        <v>287.06</v>
+      </c>
+      <c r="L42" s="1">
+        <v>288.21</v>
+      </c>
+      <c r="M42" s="1">
+        <v>293.95</v>
+      </c>
+      <c r="N42" s="1">
+        <v>300.84</v>
+      </c>
+      <c r="O42" s="1">
+        <v>312.04</v>
+      </c>
+      <c r="P42" s="1">
+        <v>321.22</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>325.82</v>
+      </c>
+      <c r="R42" s="1">
+        <v>332.71</v>
+      </c>
+      <c r="S42" s="1">
+        <v>339.6</v>
+      </c>
+      <c r="T42" s="1">
+        <v>343.9</v>
+      </c>
+      <c r="U42" s="1">
+        <v>348.5</v>
+      </c>
+      <c r="V42" s="1">
+        <v>350.79</v>
+      </c>
+      <c r="W42" s="1">
+        <v>353.09</v>
+      </c>
+      <c r="X42" s="1">
+        <v>355.39</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>357.68</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>362.28</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>366.87</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>373.76</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>380.36</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>389.55</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>401.03</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>414.52</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>430.6</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>448.68</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>469.35</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>489.73</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>512.7</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>535.37</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>560.35</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>585.61</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>612.88</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>640.15</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>669.72</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>699.58</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>731.44</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>747.23</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>779.09</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>806.65</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>824.74</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>847.41</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>860.91</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>860.91</v>
+      </c>
+      <c r="BA42" s="1"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="2"/>
+      <c r="A43" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1">
+        <v>183.11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>183.11</v>
+      </c>
+      <c r="H43" s="1">
+        <v>288.36</v>
+      </c>
+      <c r="I43" s="1">
+        <v>288.36</v>
+      </c>
+      <c r="J43" s="1">
+        <v>288.36</v>
+      </c>
+      <c r="K43" s="1">
+        <v>288.36</v>
+      </c>
+      <c r="L43" s="1">
+        <v>289.51</v>
+      </c>
+      <c r="M43" s="1">
+        <v>295.28</v>
+      </c>
+      <c r="N43" s="1">
+        <v>302.2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>313.45</v>
+      </c>
+      <c r="P43" s="1">
+        <v>322.68</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>327.29</v>
+      </c>
+      <c r="R43" s="1">
+        <v>334.21</v>
+      </c>
+      <c r="S43" s="1">
+        <v>341.13</v>
+      </c>
+      <c r="T43" s="1">
+        <v>345.46</v>
+      </c>
+      <c r="U43" s="1">
+        <v>350.07</v>
+      </c>
+      <c r="V43" s="1">
+        <v>352.38</v>
+      </c>
+      <c r="W43" s="1">
+        <v>354.68</v>
+      </c>
+      <c r="X43" s="1">
+        <v>356.99</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>359.3</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>363.91</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>368.53</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>375.45</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>382.08</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>391.31</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>402.84</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>416.39</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>432.54</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>450.71</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>471.47</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>491.94</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>515.01</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>537.79</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>562.88</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>588.26</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>615.65</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>643.05</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>672.75</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>702.74</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>734.74</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>750.6</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>782.61</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>810.29</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>828.46</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>851.24</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>864.79</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>864.79</v>
+      </c>
+      <c r="BA43" s="1"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
+      <c r="A44" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1">
+        <v>176.27</v>
+      </c>
+      <c r="G44" s="1">
+        <v>176.27</v>
+      </c>
+      <c r="H44" s="1">
+        <v>277.59</v>
+      </c>
+      <c r="I44" s="1">
+        <v>277.59</v>
+      </c>
+      <c r="J44" s="1">
+        <v>277.59</v>
+      </c>
+      <c r="K44" s="1">
+        <v>277.59</v>
+      </c>
+      <c r="L44" s="1">
+        <v>278.7</v>
+      </c>
+      <c r="M44" s="1">
+        <v>284.25</v>
+      </c>
+      <c r="N44" s="1">
+        <v>290.91</v>
+      </c>
+      <c r="O44" s="1">
+        <v>301.74</v>
+      </c>
+      <c r="P44" s="1">
+        <v>310.62</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>315.06</v>
+      </c>
+      <c r="R44" s="1">
+        <v>321.72</v>
+      </c>
+      <c r="S44" s="1">
+        <v>328.39</v>
+      </c>
+      <c r="T44" s="1">
+        <v>332.55</v>
+      </c>
+      <c r="U44" s="1">
+        <v>336.99</v>
+      </c>
+      <c r="V44" s="1">
+        <v>339.21</v>
+      </c>
+      <c r="W44" s="1">
+        <v>341.43</v>
+      </c>
+      <c r="X44" s="1">
+        <v>343.65</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>345.87</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>350.32</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>354.76</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>361.42</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>367.8</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>376.69</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>387.79</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>400.84</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>416.38</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>433.87</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>453.86</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>473.56</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>495.77</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>517.7</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>541.85</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>566.28</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>592.65</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>619.02</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>647.61</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>676.48</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>707.29</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>722.56</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>753.37</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>780.02</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>797.51</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>819.44</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>832.48</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>832.48</v>
+      </c>
+      <c r="BA44" s="1"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
+      <c r="A45" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1">
+        <v>199.56</v>
+      </c>
+      <c r="G45" s="1">
+        <v>199.56</v>
+      </c>
+      <c r="H45" s="1">
+        <v>314.26</v>
+      </c>
+      <c r="I45" s="1">
+        <v>314.26</v>
+      </c>
+      <c r="J45" s="1">
+        <v>314.26</v>
+      </c>
+      <c r="K45" s="1">
+        <v>314.26</v>
+      </c>
+      <c r="L45" s="1">
+        <v>315.52</v>
+      </c>
+      <c r="M45" s="1">
+        <v>321.81</v>
+      </c>
+      <c r="N45" s="1">
+        <v>329.35</v>
+      </c>
+      <c r="O45" s="1">
+        <v>341.61</v>
+      </c>
+      <c r="P45" s="1">
+        <v>351.66</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>356.69</v>
+      </c>
+      <c r="R45" s="1">
+        <v>364.23</v>
+      </c>
+      <c r="S45" s="1">
+        <v>371.77</v>
+      </c>
+      <c r="T45" s="1">
+        <v>376.49</v>
+      </c>
+      <c r="U45" s="1">
+        <v>381.52</v>
+      </c>
+      <c r="V45" s="1">
+        <v>384.03</v>
+      </c>
+      <c r="W45" s="1">
+        <v>386.55</v>
+      </c>
+      <c r="X45" s="1">
+        <v>389.06</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>391.57</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>396.6</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>401.63</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>409.17</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>416.4</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>426.46</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>439.03</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>453.8</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>471.4</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>491.2</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>513.82</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>536.13</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>561.28</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>586.1</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>613.44</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>641.1</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>670.95</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>700.81</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>733.18</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>765.86</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>800.75</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>818.03</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>852.91</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>883.08</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>902.88</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>927.71</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>942.48</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>942.48</v>
+      </c>
+      <c r="BA45" s="1"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="2"/>
+      <c r="A46" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1">
+        <v>192.1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>192.1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>302.53</v>
+      </c>
+      <c r="I46" s="1">
+        <v>302.53</v>
+      </c>
+      <c r="J46" s="1">
+        <v>302.53</v>
+      </c>
+      <c r="K46" s="1">
+        <v>302.53</v>
+      </c>
+      <c r="L46" s="1">
+        <v>303.74</v>
+      </c>
+      <c r="M46" s="1">
+        <v>309.79</v>
+      </c>
+      <c r="N46" s="1">
+        <v>317.05</v>
+      </c>
+      <c r="O46" s="1">
+        <v>328.85</v>
+      </c>
+      <c r="P46" s="1">
+        <v>338.53</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>343.37</v>
+      </c>
+      <c r="R46" s="1">
+        <v>350.63</v>
+      </c>
+      <c r="S46" s="1">
+        <v>357.89</v>
+      </c>
+      <c r="T46" s="1">
+        <v>362.43</v>
+      </c>
+      <c r="U46" s="1">
+        <v>367.27</v>
+      </c>
+      <c r="V46" s="1">
+        <v>369.69</v>
+      </c>
+      <c r="W46" s="1">
+        <v>372.11</v>
+      </c>
+      <c r="X46" s="1">
+        <v>374.53</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>376.95</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>381.79</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>386.63</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>393.89</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>400.85</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>410.53</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>422.63</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>436.85</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>453.79</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>472.85</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>494.63</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>516.11</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>540.31</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>564.21</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>590.53</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>617.15</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>645.89</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>674.63</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>705.79</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>737.26</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>770.84</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>787.48</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>821.06</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>850.1</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>869.16</v>
+      </c>
+      <c r="AX46" s="1">
+        <v>893.06</v>
+      </c>
+      <c r="AY46" s="1">
+        <v>907.28</v>
+      </c>
+      <c r="AZ46" s="1">
+        <v>907.28</v>
+      </c>
+      <c r="BA46" s="1"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="2"/>
